--- a/DATOS 2025.xlsx
+++ b/DATOS 2025.xlsx
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4">
         <v>125</v>

--- a/DATOS 2025.xlsx
+++ b/DATOS 2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT" sheetId="1" r:id="rId1"/>
@@ -1283,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4545454545455" defaultRowHeight="18.5" outlineLevelCol="4"/>
@@ -1415,8 +1415,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1438,8 +1438,8 @@
         <v>12.5</v>
       </c>
       <c r="D1" s="2">
-        <f>(-15+50)/2</f>
-        <v>17.5</v>
+        <f>(15+50)/2</f>
+        <v>32.5</v>
       </c>
       <c r="E1" s="2">
         <f>(25+75)/2</f>
